--- a/Results/K15/Schaefer214/SuppTable4.xlsx
+++ b/Results/K15/Schaefer214/SuppTable4.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="10">
   <si>
     <t>Row</t>
   </si>
@@ -65,7 +65,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -93,11 +93,15 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -119,6 +123,10 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -139,24 +147,24 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="23" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="23" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -173,7 +181,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="23" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -190,7 +198,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="23" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -207,7 +215,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="23" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -224,7 +232,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="23" t="s">
         <v>9</v>
       </c>
       <c r="B6">

--- a/Results/K15/Schaefer214/SuppTable4.xlsx
+++ b/Results/K15/Schaefer214/SuppTable4.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="10">
   <si>
     <t>Row</t>
   </si>
@@ -65,7 +65,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -97,11 +97,13 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -127,6 +129,8 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -147,24 +151,24 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="25" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="25" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -181,7 +185,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="25" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -198,7 +202,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -215,7 +219,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="25" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -232,7 +236,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="25" t="s">
         <v>9</v>
       </c>
       <c r="B6">
